--- a/NEW HR/DONE/ESTIGOY, ANGELITO.xlsx
+++ b/NEW HR/DONE/ESTIGOY, ANGELITO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACDA45B-A923-4CC8-BB34-8D372CBFAB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -581,14 +580,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -598,9 +600,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1131,7 +1130,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1174,7 +1173,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1237,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1297,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1363,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,7 +1426,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1524,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1583,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1648,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1691,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1766,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,7 +1952,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2018,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2077,7 +2076,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2142,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2198,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2273,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2316,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2383,7 +2382,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2438,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2517,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2535,25 +2534,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2565,25 +2564,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2890,7 +2889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2900,7 +2899,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2908,34 +2907,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2947,16 +2946,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2965,16 +2964,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2985,18 +2984,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3004,7 +3003,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3017,24 +3016,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3078,7 +3077,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3088,12 +3087,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3114,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3135,7 +3134,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3155,7 +3154,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3175,7 +3174,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3195,7 +3194,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3215,7 +3214,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3235,7 +3234,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3255,7 +3254,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3275,7 +3274,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3295,7 +3294,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3315,7 +3314,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3335,7 +3334,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3359,7 +3358,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -3377,7 +3376,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3397,7 +3396,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3417,7 +3416,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3437,7 +3436,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3457,7 +3456,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3477,7 +3476,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3497,7 +3496,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3537,7 +3536,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3557,7 +3556,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3577,7 +3576,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3597,7 +3596,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3621,7 +3620,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -3639,7 +3638,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3659,7 +3658,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3679,7 +3678,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3699,7 +3698,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3739,7 +3738,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3759,7 +3758,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3779,7 +3778,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3799,7 +3798,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3883,7 +3882,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>46</v>
       </c>
@@ -3901,7 +3900,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3921,7 +3920,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3941,7 +3940,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -3981,7 +3980,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4001,7 +4000,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4021,7 +4020,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4041,7 +4040,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4061,7 +4060,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4081,7 +4080,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4101,7 +4100,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4121,7 +4120,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4145,7 +4144,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>47</v>
       </c>
@@ -4163,7 +4162,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4183,7 +4182,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4203,7 +4202,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4223,7 +4222,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4243,7 +4242,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4263,7 +4262,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4283,7 +4282,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4303,7 +4302,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4323,7 +4322,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4343,7 +4342,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4383,7 +4382,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4407,7 +4406,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>51</v>
       </c>
@@ -4425,7 +4424,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4445,7 +4444,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4465,7 +4464,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4485,104 +4484,130 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4597,7 +4622,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4613,7 +4638,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4629,7 +4654,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4645,7 +4670,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4661,7 +4686,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4677,7 +4702,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4693,7 +4718,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4709,7 +4734,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4725,7 +4750,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4741,7 +4766,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4757,7 +4782,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4773,7 +4798,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4789,7 +4814,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4805,7 +4830,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4821,7 +4846,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4837,7 +4862,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4853,7 +4878,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4869,7 +4894,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4885,7 +4910,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4901,7 +4926,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4917,7 +4942,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4933,7 +4958,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4949,7 +4974,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4965,7 +4990,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4981,7 +5006,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4997,7 +5022,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5013,7 +5038,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5029,7 +5054,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5045,7 +5070,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5061,7 +5086,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5077,7 +5102,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5093,7 +5118,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5109,7 +5134,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5125,7 +5150,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5141,7 +5166,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5157,7 +5182,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -5175,23 +5200,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5214,34 +5239,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5253,16 +5278,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5271,16 +5296,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5291,18 +5316,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5310,7 +5335,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5323,24 +5348,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5375,7 +5400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5399,7 +5424,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>45061</v>
       </c>
@@ -5420,7 +5445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20"/>
       <c r="C11" s="13"/>
@@ -5433,7 +5458,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5446,7 +5471,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5459,7 +5484,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5472,7 +5497,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5485,7 +5510,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
@@ -5498,7 +5523,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5511,7 +5536,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5524,7 +5549,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5537,7 +5562,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5550,7 +5575,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5563,7 +5588,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5576,7 +5601,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5589,7 +5614,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5602,7 +5627,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5615,7 +5640,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5628,7 +5653,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5641,7 +5666,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5654,7 +5679,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5667,7 +5692,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5680,7 +5705,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5693,7 +5718,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5706,7 +5731,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5719,7 +5744,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5732,7 +5757,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5745,7 +5770,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5758,7 +5783,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5771,7 +5796,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5784,7 +5809,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -5797,7 +5822,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -5810,7 +5835,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5823,7 +5848,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -5836,7 +5861,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -5849,7 +5874,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -5862,7 +5887,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5875,7 +5900,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -5888,7 +5913,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -5901,7 +5926,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -5914,7 +5939,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5927,7 +5952,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -5940,7 +5965,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -5953,7 +5978,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -5966,7 +5991,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -5979,7 +6004,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -5992,7 +6017,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6005,7 +6030,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6018,7 +6043,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6031,7 +6056,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6044,7 +6069,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6057,7 +6082,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6070,7 +6095,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6083,7 +6108,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6096,7 +6121,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6109,7 +6134,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6122,7 +6147,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6135,7 +6160,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6148,7 +6173,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6161,7 +6186,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6174,7 +6199,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6187,7 +6212,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6200,7 +6225,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6213,7 +6238,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6226,7 +6251,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6239,7 +6264,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6252,7 +6277,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6265,7 +6290,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6278,7 +6303,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6291,7 +6316,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6304,7 +6329,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6320,7 +6345,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6336,7 +6361,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6352,7 +6377,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6368,7 +6393,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6384,7 +6409,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6400,7 +6425,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6416,7 +6441,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6432,7 +6457,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6448,7 +6473,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6464,7 +6489,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6480,7 +6505,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6496,7 +6521,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6512,7 +6537,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6528,7 +6553,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6544,7 +6569,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6560,7 +6585,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6576,7 +6601,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6592,7 +6617,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6608,7 +6633,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6624,7 +6649,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6640,7 +6665,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6656,7 +6681,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6672,7 +6697,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6688,7 +6713,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6704,7 +6729,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6720,7 +6745,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6736,7 +6761,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6752,7 +6777,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6768,7 +6793,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6784,7 +6809,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6800,7 +6825,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6816,7 +6841,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6832,7 +6857,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6848,7 +6873,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6864,7 +6889,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6880,7 +6905,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6896,7 +6921,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6912,7 +6937,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6928,7 +6953,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6944,7 +6969,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -6960,7 +6985,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -6976,7 +7001,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -7007,10 +7032,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7033,28 +7058,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7067,7 +7092,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7096,7 +7121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>61.253999999999998</v>
       </c>
@@ -7120,17 +7145,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7151,7 +7176,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7178,7 +7203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7204,7 +7229,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7230,7 +7255,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7256,7 +7281,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7282,7 +7307,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7308,7 +7333,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7334,7 +7359,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7360,7 +7385,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7380,7 +7405,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7400,7 +7425,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7420,7 +7445,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7441,7 +7466,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7462,7 +7487,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7483,7 +7508,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7504,7 +7529,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7525,7 +7550,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7546,7 +7571,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7567,7 +7592,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7588,7 +7613,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7609,7 +7634,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7630,7 +7655,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7651,7 +7676,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7672,7 +7697,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7693,7 +7718,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7714,7 +7739,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7735,7 +7760,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7756,7 +7781,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7777,7 +7802,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7798,7 +7823,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7819,7 +7844,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7840,7 +7865,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7849,7 +7874,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7858,7 +7883,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7867,7 +7892,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7876,7 +7901,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7885,7 +7910,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7894,7 +7919,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7903,7 +7928,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7912,7 +7937,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7921,7 +7946,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7930,7 +7955,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7939,7 +7964,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7948,7 +7973,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7957,7 +7982,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7966,7 +7991,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7975,7 +8000,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7984,7 +8009,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7993,7 +8018,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8002,7 +8027,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8011,7 +8036,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8020,7 +8045,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8029,7 +8054,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8038,7 +8063,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8047,7 +8072,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8056,7 +8081,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8065,7 +8090,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8074,7 +8099,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8083,7 +8108,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8092,7 +8117,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8101,7 +8126,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/ESTIGOY, ANGELITO.xlsx
+++ b/NEW HR/DONE/ESTIGOY, ANGELITO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DCE2FF-2836-42C5-924C-A9313646C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -211,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -587,14 +586,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -604,9 +606,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,7 +1136,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1180,7 +1179,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1243,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1303,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1369,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1432,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1531,7 +1530,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1589,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,7 +1654,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1697,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1772,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1958,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2024,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2082,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2148,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2204,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2280,7 +2279,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2322,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2388,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2444,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2523,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2541,25 +2540,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K121" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2571,25 +2570,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K121" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2896,7 +2895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2906,7 +2905,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2914,34 +2913,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K121"/>
+  <dimension ref="A2:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="L87" sqref="L87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A61"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2953,16 +2952,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2971,16 +2970,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2991,18 +2990,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3010,7 +3009,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3023,24 +3022,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3098,8 +3097,12 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="46">
+        <f>SUM(E9,I9)</f>
+        <v>148.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3121,7 +3124,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3141,7 +3144,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3161,7 +3164,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3181,7 +3184,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3201,7 +3204,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3221,7 +3224,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3241,7 +3244,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3261,7 +3264,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3281,7 +3284,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3301,7 +3304,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3321,7 +3324,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3341,7 +3344,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3365,7 +3368,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>44</v>
       </c>
@@ -3383,7 +3386,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3403,7 +3406,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3423,7 +3426,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3463,7 +3466,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3483,7 +3486,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3503,7 +3506,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3523,7 +3526,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3543,7 +3546,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3563,7 +3566,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3583,7 +3586,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3603,7 +3606,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3627,7 +3630,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
@@ -3645,7 +3648,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3665,7 +3668,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3685,7 +3688,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3705,7 +3708,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3725,7 +3728,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3745,7 +3748,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3765,7 +3768,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3785,7 +3788,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3805,7 +3808,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3825,7 +3828,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3845,7 +3848,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3865,7 +3868,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3889,7 +3892,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>46</v>
       </c>
@@ -3907,7 +3910,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -3927,7 +3930,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -3947,7 +3950,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -3967,7 +3970,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -3987,7 +3990,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4007,7 +4010,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4027,7 +4030,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4047,7 +4050,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4067,7 +4070,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4087,7 +4090,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4107,7 +4110,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4127,7 +4130,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>47</v>
       </c>
@@ -4169,7 +4172,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4189,7 +4192,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4209,7 +4212,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4229,7 +4232,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4249,7 +4252,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4269,7 +4272,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4289,7 +4292,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4309,7 +4312,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4329,7 +4332,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4349,7 +4352,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4369,7 +4372,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4389,7 +4392,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4413,7 +4416,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>51</v>
       </c>
@@ -4431,7 +4434,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4451,7 +4454,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4471,7 +4474,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4491,7 +4494,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4511,7 +4514,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4531,7 +4534,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4551,7 +4554,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4571,7 +4574,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4591,7 +4594,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4611,7 +4614,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45207</v>
       </c>
@@ -4631,7 +4634,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4647,7 +4650,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4663,7 +4666,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4679,7 +4682,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4695,7 +4698,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4711,7 +4714,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4727,7 +4730,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4743,7 +4746,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4759,7 +4762,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4775,7 +4778,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4791,7 +4794,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4807,7 +4810,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4823,7 +4826,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4839,7 +4842,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4855,7 +4858,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4871,7 +4874,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4887,7 +4890,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4903,7 +4906,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4919,7 +4922,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4935,7 +4938,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4951,7 +4954,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4967,7 +4970,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4983,7 +4986,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4999,7 +5002,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5015,7 +5018,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5031,7 +5034,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5047,7 +5050,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5063,7 +5066,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5079,7 +5082,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5095,7 +5098,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5111,7 +5114,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5127,7 +5130,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5143,7 +5146,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5159,7 +5162,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5175,7 +5178,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5191,7 +5194,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -5209,23 +5212,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5248,34 +5251,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K121"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" activePane="bottomLeft"/>
+      <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5287,16 +5290,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5305,16 +5308,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5325,18 +5328,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5344,7 +5347,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5357,24 +5360,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5409,7 +5412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5433,7 +5436,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48">
         <v>45061</v>
       </c>
@@ -5454,7 +5457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>45170</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -5488,7 +5491,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -5501,7 +5504,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -5514,7 +5517,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -5527,7 +5530,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
@@ -5540,7 +5543,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -5553,7 +5556,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -5566,7 +5569,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -5579,7 +5582,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -5592,7 +5595,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -5605,7 +5608,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -5618,7 +5621,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -5631,7 +5634,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -5644,7 +5647,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -5657,7 +5660,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -5670,7 +5673,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -5683,7 +5686,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -5696,7 +5699,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -5709,7 +5712,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -5722,7 +5725,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -5735,7 +5738,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -5748,7 +5751,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -5761,7 +5764,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -5774,7 +5777,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -5787,7 +5790,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -5800,7 +5803,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -5813,7 +5816,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -5826,7 +5829,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -5839,7 +5842,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -5852,7 +5855,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -5865,7 +5868,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -5878,7 +5881,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -5891,7 +5894,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -5904,7 +5907,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -5917,7 +5920,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -5930,7 +5933,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -5943,7 +5946,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -5956,7 +5959,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -5969,7 +5972,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -5982,7 +5985,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -5995,7 +5998,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6008,7 +6011,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6021,7 +6024,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6034,7 +6037,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6047,7 +6050,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6060,7 +6063,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6073,7 +6076,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6086,7 +6089,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6099,7 +6102,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6112,7 +6115,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6125,7 +6128,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6138,7 +6141,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6151,7 +6154,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6164,7 +6167,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6177,7 +6180,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6190,7 +6193,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6203,7 +6206,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6216,7 +6219,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6229,7 +6232,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6242,7 +6245,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6255,7 +6258,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6268,7 +6271,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6281,7 +6284,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6294,7 +6297,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6307,7 +6310,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6320,7 +6323,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6333,7 +6336,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6346,7 +6349,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6362,7 +6365,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6378,7 +6381,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6394,7 +6397,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6410,7 +6413,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6426,7 +6429,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6442,7 +6445,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6458,7 +6461,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -6474,7 +6477,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -6490,7 +6493,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -6506,7 +6509,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6522,7 +6525,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6538,7 +6541,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6554,7 +6557,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6570,7 +6573,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6586,7 +6589,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6602,7 +6605,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6618,7 +6621,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6634,7 +6637,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6650,7 +6653,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6666,7 +6669,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6682,7 +6685,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6698,7 +6701,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6714,7 +6717,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6730,7 +6733,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6746,7 +6749,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6762,7 +6765,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6778,7 +6781,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6794,7 +6797,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6810,7 +6813,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6826,7 +6829,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6842,7 +6845,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6858,7 +6861,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6874,7 +6877,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6890,7 +6893,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6906,7 +6909,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6922,7 +6925,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -6938,7 +6941,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -6954,7 +6957,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -6970,7 +6973,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -6986,7 +6989,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7002,7 +7005,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7018,7 +7021,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="15"/>
       <c r="C121" s="42"/>
@@ -7049,10 +7052,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7075,28 +7078,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -7109,7 +7112,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7138,7 +7141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>61.253999999999998</v>
       </c>
@@ -7164,17 +7167,17 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7195,7 +7198,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7352,7 +7355,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7378,7 +7381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7424,7 +7427,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7527,7 +7530,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7758,7 +7761,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7821,7 +7824,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7842,7 +7845,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7884,7 +7887,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7893,7 +7896,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7902,7 +7905,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7911,7 +7914,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7920,7 +7923,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7929,7 +7932,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7938,7 +7941,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7947,7 +7950,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7956,7 +7959,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7965,7 +7968,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7974,7 +7977,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7983,7 +7986,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7992,7 +7995,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8001,7 +8004,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8010,7 +8013,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8019,7 +8022,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8028,7 +8031,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8037,7 +8040,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8046,7 +8049,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8055,7 +8058,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8064,7 +8067,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8073,7 +8076,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8082,7 +8085,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8091,7 +8094,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8100,7 +8103,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8109,7 +8112,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8118,7 +8121,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8127,7 +8130,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8136,7 +8139,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8145,7 +8148,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
